--- a/MVC_compiled_data.xlsx
+++ b/MVC_compiled_data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ugyennorbu/Documents/OFFICE DOCUMENTS/Motor Vehicle Crash data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ugyennorbu/Desktop/Annual_report/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5BDC10-19B3-0745-AF39-98900EFCB08D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FDD022-83B7-3D4B-A705-4DFF764102DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="24660" windowHeight="15540" xr2:uid="{77E46D6A-A26C-2B4D-A42E-0B8CD18C7246}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{77E46D6A-A26C-2B4D-A42E-0B8CD18C7246}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -98,7 +98,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -110,7 +110,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,22 +431,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5831B7-DA03-6244-A5E5-7CB55FBE608D}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43:F43"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="168" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="8.33203125" style="3" customWidth="1"/>
     <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="34">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -461,7 +466,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>42186</v>
       </c>
       <c r="B2" s="2">
@@ -481,7 +486,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>42217</v>
       </c>
       <c r="B3" s="2">
@@ -501,7 +506,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>42248</v>
       </c>
       <c r="B4" s="2">
@@ -521,7 +526,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>42278</v>
       </c>
       <c r="B5" s="2">
@@ -541,7 +546,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>42309</v>
       </c>
       <c r="B6" s="2">
@@ -561,7 +566,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>42339</v>
       </c>
       <c r="B7" s="2">
@@ -581,7 +586,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>42370</v>
       </c>
       <c r="B8" s="2">
@@ -601,7 +606,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>42401</v>
       </c>
       <c r="B9" s="2">
@@ -621,7 +626,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>42430</v>
       </c>
       <c r="B10" s="2">
@@ -641,7 +646,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>42461</v>
       </c>
       <c r="B11" s="2">
@@ -661,7 +666,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>42491</v>
       </c>
       <c r="B12" s="2">
@@ -681,7 +686,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>42522</v>
       </c>
       <c r="B13" s="2">
@@ -701,7 +706,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="5">
+      <c r="A14" s="6">
         <v>42552</v>
       </c>
       <c r="B14" s="2">
@@ -721,7 +726,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="5">
+      <c r="A15" s="6">
         <v>42583</v>
       </c>
       <c r="B15" s="2">
@@ -741,7 +746,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="5">
+      <c r="A16" s="6">
         <v>42614</v>
       </c>
       <c r="B16" s="2">
@@ -761,7 +766,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="5">
+      <c r="A17" s="6">
         <v>42644</v>
       </c>
       <c r="B17" s="2">
@@ -781,7 +786,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="5">
+      <c r="A18" s="6">
         <v>42675</v>
       </c>
       <c r="B18" s="2">
@@ -801,7 +806,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="5">
+      <c r="A19" s="6">
         <v>42705</v>
       </c>
       <c r="B19" s="2">
@@ -821,7 +826,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="5">
+      <c r="A20" s="6">
         <v>42736</v>
       </c>
       <c r="B20" s="3">
@@ -841,7 +846,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="5">
+      <c r="A21" s="6">
         <v>42767</v>
       </c>
       <c r="B21" s="3">
@@ -861,7 +866,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="5">
+      <c r="A22" s="6">
         <v>42795</v>
       </c>
       <c r="B22" s="3">
@@ -881,7 +886,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="5">
+      <c r="A23" s="6">
         <v>42826</v>
       </c>
       <c r="B23" s="3">
@@ -901,7 +906,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="5">
+      <c r="A24" s="6">
         <v>42856</v>
       </c>
       <c r="B24" s="3">
@@ -921,7 +926,7 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="5">
+      <c r="A25" s="6">
         <v>42887</v>
       </c>
       <c r="B25" s="3">
@@ -941,7 +946,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="5">
+      <c r="A26" s="6">
         <v>42917</v>
       </c>
       <c r="B26" s="3">
@@ -961,7 +966,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="5">
+      <c r="A27" s="6">
         <v>42948</v>
       </c>
       <c r="B27" s="3">
@@ -981,7 +986,7 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="5">
+      <c r="A28" s="6">
         <v>42979</v>
       </c>
       <c r="B28" s="3">
@@ -1001,7 +1006,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="5">
+      <c r="A29" s="6">
         <v>43009</v>
       </c>
       <c r="B29" s="1">
@@ -1021,7 +1026,7 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="5">
+      <c r="A30" s="6">
         <v>43040</v>
       </c>
       <c r="B30" s="1">
@@ -1041,7 +1046,7 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="5">
+      <c r="A31" s="6">
         <v>43070</v>
       </c>
       <c r="B31" s="1">
@@ -1061,7 +1066,7 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="5">
+      <c r="A32" s="6">
         <v>43101</v>
       </c>
       <c r="B32" s="1">
@@ -1081,7 +1086,7 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="5">
+      <c r="A33" s="6">
         <v>43132</v>
       </c>
       <c r="B33" s="1">
@@ -1101,7 +1106,7 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="5">
+      <c r="A34" s="6">
         <v>43160</v>
       </c>
       <c r="B34" s="1">
@@ -1121,7 +1126,7 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="5">
+      <c r="A35" s="6">
         <v>43191</v>
       </c>
       <c r="B35" s="1">
@@ -1141,7 +1146,7 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="5">
+      <c r="A36" s="6">
         <v>43221</v>
       </c>
       <c r="B36" s="1">
@@ -1161,7 +1166,7 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="5">
+      <c r="A37" s="6">
         <v>43252</v>
       </c>
       <c r="B37" s="1">
@@ -1181,7 +1186,7 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="5">
+      <c r="A38" s="6">
         <v>43282</v>
       </c>
       <c r="B38" s="1">
@@ -1201,7 +1206,7 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="5">
+      <c r="A39" s="6">
         <v>43313</v>
       </c>
       <c r="B39" s="1">
@@ -1221,7 +1226,7 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="5">
+      <c r="A40" s="6">
         <v>43344</v>
       </c>
       <c r="B40" s="1">
@@ -1241,7 +1246,7 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="5">
+      <c r="A41" s="6">
         <v>43374</v>
       </c>
       <c r="B41" s="1">
@@ -1261,7 +1266,7 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="5">
+      <c r="A42" s="6">
         <v>43405</v>
       </c>
       <c r="B42" s="1">
@@ -1281,7 +1286,7 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="5">
+      <c r="A43" s="6">
         <v>43435</v>
       </c>
       <c r="B43" s="1">
@@ -1301,7 +1306,7 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="5">
+      <c r="A44" s="6">
         <v>43466</v>
       </c>
       <c r="B44" s="1">
@@ -1321,7 +1326,7 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="5">
+      <c r="A45" s="6">
         <v>43497</v>
       </c>
       <c r="B45" s="1">
@@ -1341,7 +1346,7 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="5">
+      <c r="A46" s="6">
         <v>43525</v>
       </c>
       <c r="B46" s="1">
@@ -1361,7 +1366,7 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="5">
+      <c r="A47" s="6">
         <v>43556</v>
       </c>
       <c r="B47" s="1">
@@ -1381,7 +1386,7 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="5">
+      <c r="A48" s="6">
         <v>43586</v>
       </c>
       <c r="B48" s="1">
@@ -1401,7 +1406,7 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="5">
+      <c r="A49" s="6">
         <v>43617</v>
       </c>
       <c r="B49" s="1">
@@ -1421,7 +1426,7 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="5">
+      <c r="A50" s="6">
         <v>43647</v>
       </c>
       <c r="B50" s="1">
@@ -1441,7 +1446,7 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="5">
+      <c r="A51" s="6">
         <v>43678</v>
       </c>
       <c r="B51" s="1">
@@ -1461,7 +1466,7 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="5">
+      <c r="A52" s="6">
         <v>43709</v>
       </c>
       <c r="B52" s="1">
@@ -1481,7 +1486,7 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="5">
+      <c r="A53" s="6">
         <v>43739</v>
       </c>
       <c r="B53" s="1">
@@ -1501,7 +1506,7 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="5">
+      <c r="A54" s="6">
         <v>43770</v>
       </c>
       <c r="B54" s="1">
@@ -1521,7 +1526,7 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="5">
+      <c r="A55" s="6">
         <v>43800</v>
       </c>
       <c r="B55" s="1">
@@ -1539,6 +1544,129 @@
       <c r="F55" s="1">
         <v>20</v>
       </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="6">
+        <v>43831</v>
+      </c>
+      <c r="B56" s="3">
+        <v>119</v>
+      </c>
+      <c r="C56" s="3">
+        <v>19</v>
+      </c>
+      <c r="D56" s="3">
+        <v>7</v>
+      </c>
+      <c r="E56" s="3">
+        <v>39</v>
+      </c>
+      <c r="F56" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="6">
+        <v>43862</v>
+      </c>
+      <c r="B57" s="3">
+        <v>99</v>
+      </c>
+      <c r="C57" s="3">
+        <v>6</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>38</v>
+      </c>
+      <c r="F57" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="6">
+        <v>43891</v>
+      </c>
+      <c r="B58" s="3">
+        <v>80</v>
+      </c>
+      <c r="C58" s="3">
+        <v>7</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1">
+        <v>49</v>
+      </c>
+      <c r="F58" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="6">
+        <v>43922</v>
+      </c>
+      <c r="B59" s="1">
+        <v>55</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1">
+        <v>27</v>
+      </c>
+      <c r="F59" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="6">
+        <v>43952</v>
+      </c>
+      <c r="B60" s="1">
+        <v>58</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1">
+        <v>31</v>
+      </c>
+      <c r="F60" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="6">
+        <v>43983</v>
+      </c>
+      <c r="B61" s="1">
+        <v>85</v>
+      </c>
+      <c r="C61" s="1">
+        <v>6</v>
+      </c>
+      <c r="D61" s="1">
+        <v>2</v>
+      </c>
+      <c r="E61" s="1">
+        <v>36</v>
+      </c>
+      <c r="F61" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
